--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KEI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75272C4F-B0FF-4AC5-9C7B-D36278DE8BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC65490-5848-41C9-AF31-F08045694A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C5D53B1-B2EF-4151-8264-D443F1D8BF97}"/>
   </bookViews>
   <sheets>
-    <sheet name="총괄" sheetId="1" r:id="rId1"/>
+    <sheet name="List" sheetId="1" r:id="rId1"/>
     <sheet name="DB1" sheetId="3" r:id="rId2"/>
     <sheet name="DB2" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -7569,7 +7569,7 @@
   <dimension ref="A1:P262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
